--- a/pred_ohlcv/54_21/2020-01-12 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 AMO ohlcv.xlsx
@@ -8556,7 +8556,7 @@
         <v>3221674.100000014</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2370043.882000014</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-6197754.447199985</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-5507163.714199985</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-8341912.388199985</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-7236009.298199985</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-5723269.614199985</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-6642705.931199985</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-7867269.694199985</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-7158203.199199985</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-9247154.764199985</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-10192018.36919999</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-66733051.75829998</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-64981815.92299998</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-63994573.50699998</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-64155612.99199998</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-63142943.28799997</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-62291313.06999997</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-61621727.84199997</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-60286979.16799997</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-61392882.25799997</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-60799578.89099997</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-59575015.12799998</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-60274081.62299997</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-60330862.28809997</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-58517416.94009998</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-60504184.21449998</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-65143327.81949998</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-64342552.17549998</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-63499397.71949998</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-64901952.49249998</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-66397740.65149998</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-65486780.09649998</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-66745246.90949998</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-63549480.39499998</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-75662524.86749995</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-74139331.35669996</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-75643595.27869996</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-74546167.95169996</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-75105568.26869996</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-73406519.21089998</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-73542131.40789998</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-72757907.18650147</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-73846858.75150147</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-72882591.73680148</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-74352952.60880147</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-71106958.81411976</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 AMO ohlcv.xlsx
@@ -8400,7 +8400,7 @@
         <v>-2478305.228499986</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>2209004.396000014</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>3221674.100000014</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2370043.882000014</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-6197754.447199985</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-5507163.714199985</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-8341912.388199985</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-7236009.298199985</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-5723269.614199985</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-6642705.931199985</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-7867269.694199985</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-7158203.199199985</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-9247154.764199985</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-10192018.36919999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-66733051.75829998</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-64981815.92299998</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-63994573.50699998</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-64155612.99199998</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-63142943.28799997</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-62291313.06999997</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-61621727.84199997</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-60286979.16799997</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-61392882.25799997</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-59880142.57399997</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-60799578.89099997</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-59575015.12799998</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-60274081.62299997</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-60330862.28809997</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-59385998.68309998</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-57915637.81109998</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-58517416.94009998</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-60504184.21449998</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-63876385.24449997</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-65143327.81949998</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-64342552.17549998</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-63499397.71949998</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-64901952.49249998</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-66397740.65149998</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-65486780.09649998</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-66745246.90949998</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-63549480.39499998</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-65795189.62399998</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-64670395.00999998</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-75662524.86749995</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-74139331.35669996</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-75643595.27869996</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-74546167.95169996</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-75105568.26869996</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-72283664.59589997</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-73414994.97289997</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-74529373.82489997</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-73406519.21089998</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-72326043.40789998</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-73677743.60689998</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-72393849.50689998</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-73838783.09189998</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-73542131.40789998</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-72165003.92189997</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-73355664.63589998</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-72317567.64489998</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-71262519.12989998</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-72588792.04189998</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-71762589.11089998</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-70605831.44689998</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-69711822.41689998</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-68436404.07989998</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-67203364.55489998</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-67978712.91189997</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-66974518.97089997</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-66072034.17789997</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-64528000.46679997</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-72757907.18650147</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-73846858.75150147</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-72882591.73680148</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-74352952.60880147</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-71106958.81411976</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
